--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPfParms.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdPfParms.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA4A514-4F9C-4C8F-9F75-E9B6E6F86053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -223,16 +224,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>條件記號1為1、2、3時
-1.業績全部
-2.換算業績、業務報酬
-3.介紹獎金
-4.加碼獎勵津貼
-5.協辦獎金
-其他為空白1位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>條件記號1=1時為商品別代號
 條件記號1=2時為部門別代號
 條件記號1=3、R時為為空白1位
@@ -240,23 +231,33 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.排除商品別
-2.排除部門別
-3.是否排除15日薪非業績人員
-4.業績追回時通知員工代碼(email)
-R.業績重算設定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不輸入為0(顯示空白)
 業績重算時(重算工作月)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:排除商品別
+2:排除部門別
+3:是否排除15日薪非業績人員
+4:業績追回時通知員工代碼(email)
+R:業績重算設定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>條件記號1為1、2、3時
+1:業績全部
+2:換算業績、業務報酬
+3:介紹獎金
+4:加碼獎勵津貼
+5:協辦獎金
+其他為空白1位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -545,7 +546,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,6 +637,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -671,6 +689,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -846,11 +881,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1012,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68.400000000000006" customHeight="1">
@@ -1032,7 +1067,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="12" customFormat="1" ht="32.4">
@@ -1053,7 +1088,7 @@
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="38.4" customHeight="1">
@@ -1161,7 +1196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
